--- a/data/long_razon/P51_N-Urba-long_razon.xlsx
+++ b/data/long_razon/P51_N-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,109 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +745,107 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1069,13 +854,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P51_N-Urba-long_razon.xlsx
+++ b/data/long_razon/P51_N-Urba-long_razon.xlsx
@@ -635,15 +635,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.5980936090508441</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.8365469846227324</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3088381172576172</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1060597870013384</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3565084425720451</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.3806834859802058</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.3163661640619694</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.5905305208254694</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3478015390999551</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -652,15 +670,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.8193019263483228</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.06903259869359699</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6579767168322631</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3054062242201449</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1999587438176136</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.6270602860714972</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.6018598125159533</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.04505482742464855</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5763005542253181</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -669,15 +705,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.2046694984997893</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.674931605719259</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.302294822594768</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.9066776776901014</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.380346234177513</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.01472089018445122</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.05187368132155944</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.498373081723279</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.01503010742124545</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -690,15 +744,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>1.142900879648538</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3164522257524395</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2009420099845703</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.9815369510783112</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.2427973261755284</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.8725928774044708</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.055358042713099</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.08086260866741185</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.4658102399171404</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -707,15 +779,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.07664971609068398</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.8127810831152322</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3998644509099518</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.07196948053615032</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4136291798330485</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.002025337249796719</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.2562659941265287</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.5711026568149087</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.00101958740358599</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -724,15 +814,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>4.850056354776304</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6954781118766842</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.383854035611234</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.980620647233834</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.438153762126336</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>2.408697503311628</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.951971679285764</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.5863263128293558</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.370500621569991</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,15 +853,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>1.256916328030088</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5944716404781663</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.6539725003912567</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.9664604711074495</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.4925687699193729</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.207696199348009</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.061922230270179</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.5431172589667904</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2216618455980716</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -763,14 +889,30 @@
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.390447615739304</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.8364707918422523</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.593359042501492</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.26557146861442</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.8425425383795633</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.6557153321102358</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -780,14 +922,30 @@
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>1.086752546189804</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6958343540935945</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.630070081327351</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.3936117979036164</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.678111030511022</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>4.166772397483038</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.004580264096079979</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.7508127576707703</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -800,15 +958,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1664741642059098</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.02151925845356487</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1440296727150183</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4471733203050237</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1310687801942716</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.04589744875597945</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1112325831067286</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.07314526232002413</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.05167911258153924</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -817,15 +993,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5814894875713803</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4876817817800054</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4603271610478805</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.0004913803703638618</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.244278351013495</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2802882703135717</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.233441982636685</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2696349523448912</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.289821069494096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -834,15 +1028,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.5434700089257887</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8287548681066073</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3678091880367466</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.062582269696934</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.6702113697873975</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.4607826516465274</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.5685227833322928</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.5237472627702404</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2271143222614802</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
